--- a/data/hand/excel/Consens.xlsx
+++ b/data/hand/excel/Consens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkotsovolos/Desktop/GitHub/ASIM-Coins/data/hand/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkotsovolos/Desktop/GitHub/ASIM-Coins/data/hand/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279E115C-230A-8B4D-9B19-9D3E721A91B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD0A0C-0DA7-E348-B209-66562B756A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1460" windowWidth="27640" windowHeight="15440" xr2:uid="{4AF64C5B-8289-7E40-A46D-4E2AE2C09D7F}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15440" xr2:uid="{4AF64C5B-8289-7E40-A46D-4E2AE2C09D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -67,16 +67,13 @@
     <t>Monero</t>
   </si>
   <si>
-    <t>Consens</t>
-  </si>
-  <si>
     <t>Proof-of-Work</t>
   </si>
   <si>
     <t>Proof-of-Stake</t>
   </si>
   <si>
-    <t>custom</t>
+    <t>custom consens</t>
   </si>
 </sst>
 </file>
@@ -431,15 +428,12 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +467,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -508,7 +502,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -543,7 +537,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0</v>
